--- a/biology/Zoologie/Abrostola_tripartita/Abrostola_tripartita.xlsx
+++ b/biology/Zoologie/Abrostola_tripartita/Abrostola_tripartita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusie de l'Ortie
-Abrostola tripartita, la Plusie de l'Ortie[1], est une espèce de lépidoptères de la famille des Noctuidae, de la sous-famille des Plusiinae.
+Abrostola tripartita, la Plusie de l'Ortie, est une espèce de lépidoptères de la famille des Noctuidae, de la sous-famille des Plusiinae.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-On la trouve dans la zone paléarctique.
-Habitat
-La Plusie de l'Ortie fréquente surtout des lieux assez humides comme les prairies grasses, les marais, les bords de rivières ou encore les ruisseaux. En montagne, elle atteint des altitudes de près de 2 000 mètres. Elle est répandue dans presque toute la France, y compris en Corse, avec des fréquences variables selon les régions. Elle est présente dans le Nord-Pas-de-Calais.
-L'imago butine les fleurs au crépuscule et vient sans problème à la lumière[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans la zone paléarctique.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Plusie de l'Ortie fréquente surtout des lieux assez humides comme les prairies grasses, les marais, les bords de rivières ou encore les ruisseaux. En montagne, elle atteint des altitudes de près de 2 000 mètres. Elle est répandue dans presque toute la France, y compris en Corse, avec des fréquences variables selon les régions. Elle est présente dans le Nord-Pas-de-Calais.
+L'imago butine les fleurs au crépuscule et vient sans problème à la lumière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abrostola_tripartita</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abrostola_tripartita</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Son envergure est comprise entre 27 et 35 mm. Elle se distingue par :
 la teinte de l'aire basale de ses ailes antérieures, grise comme le reste de l'aile, à peine éclaircie d'un semis d'écailles cendrées ;
@@ -557,37 +611,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Abrostola_tripartita</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Abrostola_tripartita</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit d'orties et la chrysalide hiberne.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -609,12 +632,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Espèces proches</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrostola tripartita ressemble à trois espèces du même genre : Abrostola asclepiadis, Abrostola triplasia, Abrostola agnorista (voir comparaison sur lepinet.fr Abrostola tripartita et espèces voisines en France)
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit d'orties et la chrysalide hiberne.
 </t>
         </is>
       </c>
@@ -640,10 +665,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Espèces proches</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrostola tripartita ressemble à trois espèces du même genre : Abrostola asclepiadis, Abrostola triplasia, Abrostola agnorista (voir comparaison sur lepinet.fr Abrostola tripartita et espèces voisines en France)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abrostola_tripartita</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abrostola_tripartita</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite par l'entomologiste allemand Johann Siegfried Hufnagel en 1766.
 Son nom anglais est Spectacle.
